--- a/pachinko/king_samai/Feb_DB.xlsx
+++ b/pachinko/king_samai/Feb_DB.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>total</t>
     <phoneticPr fontId="1"/>
@@ -113,12 +113,6 @@
   <si>
     <t>2gatu</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(空白)</t>
-  </si>
-  <si>
-    <t>(すべて)</t>
   </si>
   <si>
     <t>gousei</t>
@@ -236,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,11 +294,290 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="137">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5329,40 +5602,40 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N4:S20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N4:S19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField axis="axisPage" numFmtId="56" multipleItemSelectionAllowed="1" showAll="0">
       <items count="30">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
         <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5399,7 +5672,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -5442,9 +5715,6 @@
     <i>
       <x v="13"/>
     </i>
-    <i>
-      <x v="14"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -5480,7 +5750,7 @@
     <dataField name="合計 / payout" fld="10" baseField="0" baseItem="0" numFmtId="176"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="29">
+    <format dxfId="89">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5505,7 +5775,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="88">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5530,7 +5800,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="14">
@@ -5552,7 +5822,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="14">
@@ -5574,7 +5844,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="14">
@@ -5596,7 +5866,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="84">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5621,7 +5891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="83">
       <pivotArea field="1" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5630,7 +5900,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="82">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5658,7 +5928,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="81">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5667,7 +5937,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="80">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5678,7 +5948,169 @@
     </format>
   </formats>
   <conditionalFormats count="9">
-    <conditionalFormat type="all" priority="47">
+    <conditionalFormat type="all" priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="14">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat type="all" priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="1" count="14">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat type="all" priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="1" count="14">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat type="all" priority="42">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="14">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat type="all" priority="43">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="14">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat type="all" priority="44">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="14">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="45">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -5732,174 +6164,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="45">
+    <conditionalFormat type="all" priority="47">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="1"/>
-            </reference>
-            <reference field="1" count="14">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat type="all" priority="44">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="14">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat type="all" priority="43">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="14">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat type="all" priority="42">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="1" count="14">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat type="all" priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="1" count="14">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat type="all" priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="1" count="14">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat type="all" priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
             </reference>
             <reference field="1" count="14">
               <x v="0"/>
@@ -6221,7 +6491,7 @@
   <dimension ref="A1:S397"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6249,8 +6519,8 @@
       <c r="N2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
-        <v>21</v>
+      <c r="O2" s="21">
+        <v>43521</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -6282,7 +6552,7 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -6387,19 +6657,19 @@
         <v>360</v>
       </c>
       <c r="O5" s="14">
-        <v>73914</v>
+        <v>1366</v>
       </c>
       <c r="P5" s="13">
-        <v>-5004.0266272189419</v>
+        <v>-460.710059171598</v>
       </c>
       <c r="Q5" s="12">
-        <v>474</v>
+        <v>7</v>
       </c>
       <c r="R5" s="17">
-        <v>155.9367088607595</v>
+        <v>195.14285714285714</v>
       </c>
       <c r="S5" s="16">
-        <v>0.97743311313499959</v>
+        <v>0.88757685232513472</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
@@ -6444,19 +6714,19 @@
         <v>361</v>
       </c>
       <c r="O6" s="14">
-        <v>49279</v>
+        <v>9192</v>
       </c>
       <c r="P6" s="13">
-        <v>-1225.5364401484849</v>
+        <v>2678</v>
       </c>
       <c r="Q6" s="12">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="R6" s="17">
-        <v>149.33030303030304</v>
+        <v>122.56</v>
       </c>
       <c r="S6" s="16">
-        <v>0.99171021841522433</v>
+        <v>1.0971134319698288</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -6501,19 +6771,19 @@
         <v>362</v>
       </c>
       <c r="O7" s="14">
-        <v>60760</v>
+        <v>1581</v>
       </c>
       <c r="P7" s="13">
-        <v>-4949.4786982248606</v>
+        <v>-570.75739644970463</v>
       </c>
       <c r="Q7" s="12">
-        <v>387</v>
+        <v>9</v>
       </c>
       <c r="R7" s="17">
-        <v>157.00258397932816</v>
+        <v>175.66666666666666</v>
       </c>
       <c r="S7" s="16">
-        <v>0.9728468361958259</v>
+        <v>0.87966320968802358</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
@@ -6555,19 +6825,19 @@
         <v>363</v>
       </c>
       <c r="O8" s="14">
-        <v>46631</v>
+        <v>2950</v>
       </c>
       <c r="P8" s="13">
-        <v>-3979.3609431265068</v>
+        <v>-307.90532544378766</v>
       </c>
       <c r="Q8" s="12">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="R8" s="17">
-        <v>167.13620071684588</v>
+        <v>173.52941176470588</v>
       </c>
       <c r="S8" s="16">
-        <v>0.97155425258500072</v>
+        <v>0.96520843780296184</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -6609,19 +6879,19 @@
         <v>365</v>
       </c>
       <c r="O9" s="14">
-        <v>68810</v>
+        <v>6076</v>
       </c>
       <c r="P9" s="13">
-        <v>-462.38698224852976</v>
+        <v>-564.16568047337387</v>
       </c>
       <c r="Q9" s="12">
-        <v>462</v>
+        <v>41</v>
       </c>
       <c r="R9" s="17">
-        <v>148.93939393939394</v>
+        <v>148.19512195121951</v>
       </c>
       <c r="S9" s="16">
-        <v>0.99776007856295823</v>
+        <v>0.96904950183929273</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -6669,19 +6939,19 @@
         <v>366</v>
       </c>
       <c r="O10" s="14">
-        <v>62638</v>
+        <v>1003</v>
       </c>
       <c r="P10" s="13">
-        <v>-1201.5688926458188</v>
+        <v>-859.7278106508877</v>
       </c>
       <c r="Q10" s="12">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="R10" s="17">
-        <v>144.32718894009216</v>
+        <v>250.75</v>
       </c>
       <c r="S10" s="16">
-        <v>0.99360575107418381</v>
+        <v>0.71428121945799683</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -6726,19 +6996,19 @@
         <v>367</v>
       </c>
       <c r="O11" s="14">
-        <v>61994</v>
+        <v>4912</v>
       </c>
       <c r="P11" s="13">
-        <v>6538.686390532539</v>
+        <v>4019</v>
       </c>
       <c r="Q11" s="12">
-        <v>428</v>
+        <v>50</v>
       </c>
       <c r="R11" s="17">
-        <v>144.84579439252337</v>
+        <v>98.24</v>
       </c>
       <c r="S11" s="16">
-        <v>1.0351576302574041</v>
+        <v>1.2727334419109664</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
@@ -6786,19 +7056,19 @@
         <v>368</v>
       </c>
       <c r="O12" s="14">
-        <v>55741</v>
+        <v>6717</v>
       </c>
       <c r="P12" s="13">
-        <v>-3405.4431952662744</v>
+        <v>1190</v>
       </c>
       <c r="Q12" s="12">
-        <v>360</v>
+        <v>48</v>
       </c>
       <c r="R12" s="17">
-        <v>154.83611111111111</v>
+        <v>139.9375</v>
       </c>
       <c r="S12" s="16">
-        <v>0.97963531813646287</v>
+        <v>1.0590541412336856</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -6843,19 +7113,19 @@
         <v>370</v>
       </c>
       <c r="O13" s="14">
-        <v>59903</v>
+        <v>1304</v>
       </c>
       <c r="P13" s="13">
-        <v>2771.2585798816508</v>
+        <v>-680.99408284023707</v>
       </c>
       <c r="Q13" s="12">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="R13" s="17">
-        <v>147.54433497536945</v>
+        <v>217.33333333333334</v>
       </c>
       <c r="S13" s="16">
-        <v>1.015420811310962</v>
+        <v>0.82592175796517464</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -6897,19 +7167,19 @@
         <v>371</v>
       </c>
       <c r="O14" s="14">
-        <v>65449</v>
+        <v>1621</v>
       </c>
       <c r="P14" s="13">
-        <v>4703.7610312764091</v>
+        <v>-629.92899408284075</v>
       </c>
       <c r="Q14" s="12">
-        <v>462</v>
+        <v>7</v>
       </c>
       <c r="R14" s="17">
-        <v>141.66450216450215</v>
+        <v>231.57142857142858</v>
       </c>
       <c r="S14" s="16">
-        <v>1.0239563682219561</v>
+        <v>0.87046494055462875</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -6951,19 +7221,19 @@
         <v>372</v>
       </c>
       <c r="O15" s="14">
-        <v>63029</v>
+        <v>5347</v>
       </c>
       <c r="P15" s="13">
-        <v>-4415.3538461538519</v>
+        <v>-1461.7633136094682</v>
       </c>
       <c r="Q15" s="12">
-        <v>425</v>
+        <v>32</v>
       </c>
       <c r="R15" s="17">
-        <v>148.30352941176471</v>
+        <v>167.09375</v>
       </c>
       <c r="S15" s="16">
-        <v>0.97664908827072272</v>
+        <v>0.90887330505520425</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
@@ -7008,19 +7278,19 @@
         <v>373</v>
       </c>
       <c r="O16" s="14">
-        <v>66582</v>
+        <v>8827</v>
       </c>
       <c r="P16" s="13">
-        <v>5443.1684699915422</v>
+        <v>3018</v>
       </c>
       <c r="Q16" s="12">
-        <v>467</v>
+        <v>73</v>
       </c>
       <c r="R16" s="17">
-        <v>142.57387580299786</v>
+        <v>120.91780821917808</v>
       </c>
       <c r="S16" s="16">
-        <v>1.0272504504219937</v>
+        <v>1.1139685057210831</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
@@ -7062,19 +7332,19 @@
         <v>375</v>
       </c>
       <c r="O17" s="14">
-        <v>55614</v>
+        <v>1661</v>
       </c>
       <c r="P17" s="13">
-        <v>-2497.8603800316732</v>
+        <v>-1313.1005917159769</v>
       </c>
       <c r="Q17" s="12">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="R17" s="17">
-        <v>150.71544715447155</v>
+        <v>237.28571428571428</v>
       </c>
       <c r="S17" s="16">
-        <v>0.98502858764560686</v>
+        <v>0.73648392700863397</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
@@ -7119,19 +7389,19 @@
         <v>376</v>
       </c>
       <c r="O18" s="14">
-        <v>76818</v>
+        <v>3924</v>
       </c>
       <c r="P18" s="13">
-        <v>6340.6692307692283</v>
+        <v>-292.73372781065154</v>
       </c>
       <c r="Q18" s="12">
-        <v>529</v>
+        <v>23</v>
       </c>
       <c r="R18" s="17">
-        <v>145.21361058601136</v>
+        <v>170.60869565217391</v>
       </c>
       <c r="S18" s="16">
-        <v>1.0275138172076388</v>
+        <v>0.97513305064469491</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
@@ -7170,16 +7440,22 @@
         <v>115.125</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="17" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="16" t="e">
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="O19" s="12">
+        <v>56481</v>
+      </c>
+      <c r="P19" s="18">
+        <v>3763.2130177514732</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>399</v>
+      </c>
+      <c r="R19" s="17">
+        <v>141.55639097744361</v>
+      </c>
+      <c r="S19" s="16">
+        <v>1.0222093153317131</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
@@ -7217,24 +7493,6 @@
         <f t="shared" si="3"/>
         <v>241.66666666666666</v>
       </c>
-      <c r="N20" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="12">
-        <v>867162</v>
-      </c>
-      <c r="P20" s="18">
-        <v>-1343.4723026135716</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>5812</v>
-      </c>
-      <c r="R20" s="17">
-        <v>149.20199587061254</v>
-      </c>
-      <c r="S20" s="16">
-        <v>0.99948357504033702</v>
-      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
@@ -21968,6 +22226,10 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A396" s="5"/>
+      <c r="F396" s="1">
+        <f>SUM(F4:F395)</f>
+        <v>-1343.4723026135791</v>
+      </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A397" s="5"/>
@@ -21975,155 +22237,155 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting pivot="1" sqref="P5:P18">
-    <cfRule type="top10" dxfId="76" priority="47" rank="3"/>
+    <cfRule type="top10" dxfId="136" priority="47" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="P5:P18">
-    <cfRule type="top10" dxfId="75" priority="46" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="135" priority="46" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="P5:P18">
-    <cfRule type="cellIs" dxfId="74" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="P5:P18">
-    <cfRule type="top10" dxfId="73" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="133" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="P5:P18">
-    <cfRule type="top10" dxfId="72" priority="43" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="132" priority="43" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="Q5:Q18">
-    <cfRule type="top10" dxfId="71" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="131" priority="42" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56:P69">
-    <cfRule type="top10" dxfId="70" priority="41" rank="3"/>
+    <cfRule type="top10" dxfId="130" priority="41" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56:P69">
-    <cfRule type="top10" dxfId="69" priority="40" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="129" priority="40" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56:P69">
-    <cfRule type="cellIs" dxfId="68" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56:P69">
-    <cfRule type="top10" dxfId="67" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="127" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56:P69">
-    <cfRule type="top10" dxfId="66" priority="37" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="126" priority="37" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q56:Q69">
-    <cfRule type="top10" dxfId="65" priority="36" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="125" priority="36" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S56:S69">
-    <cfRule type="top10" dxfId="64" priority="35" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="124" priority="35" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56:R69">
-    <cfRule type="top10" dxfId="63" priority="34" rank="3"/>
+    <cfRule type="top10" dxfId="123" priority="34" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:P37">
-    <cfRule type="top10" dxfId="62" priority="33" rank="3"/>
+    <cfRule type="top10" dxfId="122" priority="33" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:P37">
-    <cfRule type="top10" dxfId="61" priority="32" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="121" priority="32" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:P37">
-    <cfRule type="cellIs" dxfId="60" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:P37">
-    <cfRule type="top10" dxfId="59" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="119" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:P37">
-    <cfRule type="top10" dxfId="58" priority="29" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="118" priority="29" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:Q37">
-    <cfRule type="top10" dxfId="57" priority="28" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="117" priority="28" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24:S38">
-    <cfRule type="top10" dxfId="56" priority="27" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="116" priority="27" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24:R38">
-    <cfRule type="top10" dxfId="55" priority="26" rank="3"/>
+    <cfRule type="top10" dxfId="115" priority="26" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40:P53">
-    <cfRule type="top10" dxfId="54" priority="25" rank="3"/>
+    <cfRule type="top10" dxfId="114" priority="25" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40:P53">
-    <cfRule type="top10" dxfId="53" priority="24" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="113" priority="24" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40:P53">
-    <cfRule type="cellIs" dxfId="52" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40:P53">
-    <cfRule type="top10" dxfId="51" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="111" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40:P53">
-    <cfRule type="top10" dxfId="50" priority="21" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="110" priority="21" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q40:Q53">
-    <cfRule type="top10" dxfId="49" priority="20" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="109" priority="20" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:S53">
-    <cfRule type="top10" dxfId="48" priority="19" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="108" priority="19" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:R53">
-    <cfRule type="top10" dxfId="47" priority="18" rank="3"/>
+    <cfRule type="top10" dxfId="107" priority="18" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54">
-    <cfRule type="top10" dxfId="46" priority="17" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="106" priority="17" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R54">
-    <cfRule type="top10" dxfId="45" priority="16" rank="3"/>
+    <cfRule type="top10" dxfId="105" priority="16" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S70">
-    <cfRule type="top10" dxfId="44" priority="15" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="104" priority="15" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R70">
-    <cfRule type="top10" dxfId="43" priority="14" rank="3"/>
+    <cfRule type="top10" dxfId="103" priority="14" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74:P87">
-    <cfRule type="top10" dxfId="42" priority="13" rank="3"/>
+    <cfRule type="top10" dxfId="102" priority="13" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74:P87">
-    <cfRule type="top10" dxfId="41" priority="12" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="101" priority="12" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74:P87">
-    <cfRule type="cellIs" dxfId="40" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74:P87">
-    <cfRule type="top10" dxfId="39" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="99" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P74:P87">
-    <cfRule type="top10" dxfId="38" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="98" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74:Q87">
-    <cfRule type="top10" dxfId="37" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="97" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S74:S87">
-    <cfRule type="top10" dxfId="36" priority="7" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="96" priority="7" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R74:R87">
-    <cfRule type="top10" dxfId="35" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="95" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S88">
-    <cfRule type="top10" dxfId="34" priority="5" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="94" priority="5" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R88">
-    <cfRule type="top10" dxfId="33" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="93" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="R5:R18">
-    <cfRule type="top10" dxfId="32" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="92" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="S5:S18">
-    <cfRule type="top10" dxfId="31" priority="2" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="91" priority="2" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="O5:O18">
-    <cfRule type="top10" dxfId="30" priority="1" percent="1" bottom="1" rank="23"/>
+    <cfRule type="top10" dxfId="90" priority="1" percent="1" bottom="1" rank="23"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
